--- a/data/trans_dic/P16A_2_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,35; 36,91</t>
+          <t>19,71; 36,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,7; 47,59</t>
+          <t>33,81; 47,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,98; 40,57</t>
+          <t>29,49; 40,27</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,42; 31,05</t>
+          <t>23,18; 30,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,36; 41,73</t>
+          <t>32,82; 41,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,84; 35,57</t>
+          <t>29,51; 35,52</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,92; 23,38</t>
+          <t>16,89; 23,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,84; 41,06</t>
+          <t>35,86; 41,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,8; 31,5</t>
+          <t>26,81; 31,51</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,53; 26,33</t>
+          <t>19,65; 26,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,8; 63,94</t>
+          <t>35,78; 62,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,15; 47,88</t>
+          <t>29,24; 50,19</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,92; 27,16</t>
+          <t>21,76; 27,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36,72; 42,56</t>
+          <t>36,76; 42,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,56; 34,63</t>
+          <t>30,68; 34,78</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,68; 25,31</t>
+          <t>21,61; 25,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,95; 46,06</t>
+          <t>37,91; 46,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,82; 35,79</t>
+          <t>30,77; 36,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_2_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P16A_2_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,71; 36,76</t>
+          <t>19,35; 36,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,81; 47,29</t>
+          <t>33,7; 47,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,49; 40,27</t>
+          <t>29,98; 40,57</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,18; 30,97</t>
+          <t>23,42; 31,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,82; 41,54</t>
+          <t>32,36; 41,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,51; 35,52</t>
+          <t>29,84; 35,57</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,89; 23,83</t>
+          <t>16,92; 23,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,86; 41,52</t>
+          <t>35,84; 41,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,81; 31,51</t>
+          <t>26,8; 31,5</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,65; 26,41</t>
+          <t>19,53; 26,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,78; 62,87</t>
+          <t>35,8; 63,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,24; 50,19</t>
+          <t>29,15; 47,88</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,76; 27,75</t>
+          <t>21,92; 27,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36,76; 42,62</t>
+          <t>36,72; 42,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,68; 34,78</t>
+          <t>30,56; 34,63</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,61; 25,0</t>
+          <t>21,68; 25,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>37,91; 46,47</t>
+          <t>37,95; 46,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,77; 36,55</t>
+          <t>30,82; 35,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_2_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>27,31%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>40,6%</t>
+          <t>37,16%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>34,78%</t>
+          <t>32,39%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>19,35; 36,91</t>
+          <t>23,06; 30,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,7; 47,59</t>
+          <t>29,72; 40,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,98; 40,57</t>
+          <t>28,79; 35,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>27,16%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37,83%</t>
+          <t>39,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>26,85%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,42; 31,05</t>
+          <t>9,14; 22,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,36; 41,73</t>
+          <t>36,42; 41,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,84; 35,57</t>
+          <t>17,9; 30,89</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>20,37%</t>
+          <t>22,8%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>38,53%</t>
+          <t>49,77%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,54%</t>
+          <t>38,17%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,92; 23,38</t>
+          <t>19,33; 26,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>35,84; 41,06</t>
+          <t>34,18; 73,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,8; 31,5</t>
+          <t>28,48; 58,62</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>25,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>44,89%</t>
+          <t>37,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,86%</t>
+          <t>31,91%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,53; 26,33</t>
+          <t>22,39; 28,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>35,8; 63,94</t>
+          <t>29,73; 41,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,15; 47,88</t>
+          <t>28,46; 34,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>22,17%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>39,62%</t>
+          <t>41,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>32,66%</t>
+          <t>31,91%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,92; 27,16</t>
+          <t>17,78; 24,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36,72; 42,56</t>
+          <t>36,74; 50,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,56; 34,63</t>
+          <t>28,71; 37,94</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>23,35%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>40,26%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>32,33%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>21,68; 25,31</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>37,95; 46,06</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>30,82; 35,79</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P16A_2_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P16A_2_R3-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,06; 30,59</t>
+          <t>23,12; 30,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,72; 40,94</t>
+          <t>28,62; 41,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>28,79; 35,11</t>
+          <t>28,34; 35,18</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,14; 22,41</t>
+          <t>9,4; 22,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>36,42; 41,67</t>
+          <t>36,33; 41,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,9; 30,89</t>
+          <t>18,34; 30,87</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,33; 26,31</t>
+          <t>19,4; 26,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,18; 73,91</t>
+          <t>34,17; 72,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,48; 58,62</t>
+          <t>28,48; 59,43</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,39; 28,23</t>
+          <t>22,1; 28,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,73; 41,69</t>
+          <t>30,21; 41,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,46; 34,14</t>
+          <t>28,23; 34,37</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,78; 24,63</t>
+          <t>17,17; 24,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>36,74; 50,76</t>
+          <t>36,85; 52,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,71; 37,94</t>
+          <t>28,71; 38,45</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>171183</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>269521</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>440705</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>146945; 193888</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>207594; 297693</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>385667; 478667</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>203407</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>374375</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>577783</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>112118; 268582</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>348324; 400378</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>394523; 664097</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>160632</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>464539</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>625171</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>136714; 186370</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>318961; 679085</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>466543; 973452</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>672</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>937</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>231677</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>413519</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>645196</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>204852; 261603</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>330820; 452957</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>570831; 694895</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2292</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3165</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>766900</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1521954</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2288854</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>594040; 847131</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1367959; 1946538</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>2059043; 2757995</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>